--- a/files/outros/AnaliseCCF.xlsx
+++ b/files/outros/AnaliseCCF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailbip.sharepoint.com/sites/PE4966-Sicoob/Documenti condivisi/General/06. CCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogerio.rodrigues\Documents\workspace_python\rag_python\files\outros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1699" documentId="11_D5A973C29425EEB471AEC1B71541C3A25549546D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60AB65D7-EC11-46F8-8437-7C45F1CB11B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F3049-5EBC-4055-90EE-228C2E834315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologias" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="136">
   <si>
     <t>Metodologias EAD</t>
   </si>
@@ -471,7 +471,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +522,14 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -895,6 +903,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,9 +941,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4133,10 +4139,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4425,38 +4427,38 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -4474,7 +4476,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -4486,7 +4488,7 @@
       </c>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4504,7 +4506,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -4522,7 +4524,7 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
@@ -4534,7 +4536,7 @@
       </c>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -4552,7 +4554,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -4570,7 +4572,7 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
@@ -4582,7 +4584,7 @@
       </c>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -4600,25 +4602,28 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4633,24 +4638,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079E72B4-15CF-4F50-A47B-3998BDE6E541}">
   <dimension ref="B2:S18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4703,7 +4721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>44805</v>
       </c>
@@ -4754,9 +4772,11 @@
         <f t="shared" ref="Q5:Q16" si="1">$M$17/H5</f>
         <v>6.8790639999999996</v>
       </c>
-      <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="R5" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>44835</v>
       </c>
@@ -4812,7 +4832,7 @@
         <v>-572.32499999999959</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>44866</v>
       </c>
@@ -4868,7 +4888,7 @@
         <v>6168.8749999999991</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>44896</v>
       </c>
@@ -4924,7 +4944,7 @@
         <v>6224.65</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>44927</v>
       </c>
@@ -4980,7 +5000,7 @@
         <v>14566.674999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>44958</v>
       </c>
@@ -5036,7 +5056,7 @@
         <v>16489.399999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>44986</v>
       </c>
@@ -5092,7 +5112,7 @@
         <v>18210.999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>45017</v>
       </c>
@@ -5148,7 +5168,7 @@
         <v>9067.3249999999989</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>45047</v>
       </c>
@@ -5204,7 +5224,7 @@
         <v>21098.649999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>45078</v>
       </c>
@@ -5260,7 +5280,7 @@
         <v>31250.774999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>45108</v>
       </c>
@@ -5316,7 +5336,7 @@
         <v>35500.174999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>45139</v>
       </c>
@@ -5373,7 +5393,7 @@
       </c>
       <c r="S16" s="40"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>45170</v>
       </c>
@@ -5424,7 +5444,7 @@
       </c>
       <c r="S17" s="40"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P18" s="13"/>
     </row>
   </sheetData>
@@ -5437,41 +5457,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7FE207-2095-4A17-8286-804841F010BC}">
   <dimension ref="B2:R141"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="16" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="69" t="s">
+    <row r="4" spans="2:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>41</v>
       </c>
@@ -5486,12 +5506,12 @@
       <c r="I5" s="43">
         <v>1893037</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="74">
         <v>145662</v>
       </c>
-      <c r="K5" s="74"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
         <v>42</v>
       </c>
@@ -5502,12 +5522,12 @@
       <c r="I6" s="47">
         <v>1237760</v>
       </c>
-      <c r="J6" s="75">
+      <c r="J6" s="76">
         <v>145658</v>
       </c>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>44</v>
       </c>
@@ -5522,12 +5542,12 @@
       <c r="I7" s="43">
         <v>1525856</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="74">
         <v>145662</v>
       </c>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
         <v>46</v>
       </c>
@@ -5542,41 +5562,41 @@
       <c r="I8" s="48">
         <v>1747375</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="78">
         <v>145662</v>
       </c>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K8" s="79"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="N14" s="70" t="s">
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="N14" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-    </row>
-    <row r="15" spans="2:16" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+    </row>
+    <row r="15" spans="2:16" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>49</v>
       </c>
@@ -5615,7 +5635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5659,7 +5679,7 @@
         <v>0.43220606609822743</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6</v>
       </c>
@@ -5703,7 +5723,7 @@
         <v>0.20831788661421646</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7</v>
       </c>
@@ -5747,7 +5767,7 @@
         <v>4.1452128901154725E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -5791,7 +5811,7 @@
         <v>1.6092048715519492E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>9</v>
       </c>
@@ -5835,7 +5855,7 @@
         <v>8.4579368675426671E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>10</v>
       </c>
@@ -5879,7 +5899,7 @@
         <v>6.8789389133747988E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11</v>
       </c>
@@ -5923,7 +5943,7 @@
         <v>7.1810080872156089E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>12</v>
       </c>
@@ -5967,7 +5987,7 @@
         <v>7.5174033035383288E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>13</v>
       </c>
@@ -6011,7 +6031,7 @@
         <v>7.5791901800057668E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
         <v>52</v>
       </c>
@@ -6055,7 +6075,7 @@
         <v>7.4487512185745083E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>11</v>
       </c>
@@ -6088,7 +6108,7 @@
         <v>7.6409770564732048E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>12</v>
       </c>
@@ -6121,7 +6141,7 @@
         <v>0.24922766404415703</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F28" s="28" t="s">
         <v>52</v>
       </c>
@@ -6156,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>53</v>
       </c>
@@ -6174,12 +6194,12 @@
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
         <v>14</v>
       </c>
@@ -6224,7 +6244,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>44743</v>
       </c>
@@ -6268,7 +6288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>44774</v>
       </c>
@@ -6312,7 +6332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>44805</v>
       </c>
@@ -6356,7 +6376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>44835</v>
       </c>
@@ -6400,7 +6420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>44866</v>
       </c>
@@ -6444,7 +6464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>44896</v>
       </c>
@@ -6488,7 +6508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>44927</v>
       </c>
@@ -6532,7 +6552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>44958</v>
       </c>
@@ -6576,7 +6596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>44986</v>
       </c>
@@ -6620,7 +6640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>45017</v>
       </c>
@@ -6664,7 +6684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>45047</v>
       </c>
@@ -6708,7 +6728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>45078</v>
       </c>
@@ -6752,7 +6772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>45108</v>
       </c>
@@ -6796,12 +6816,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
         <v>14</v>
       </c>
@@ -6852,7 +6872,7 @@
       </c>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>44986</v>
       </c>
@@ -6902,12 +6922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>14</v>
       </c>
@@ -6958,7 +6978,7 @@
       </c>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>44743</v>
       </c>
@@ -7008,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>44774</v>
       </c>
@@ -7058,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>44805</v>
       </c>
@@ -7108,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>44835</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>44927</v>
       </c>
@@ -7208,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>44958</v>
       </c>
@@ -7258,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>44986</v>
       </c>
@@ -7308,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>45017</v>
       </c>
@@ -7358,12 +7378,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>14</v>
       </c>
@@ -7414,7 +7434,7 @@
       </c>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>44743</v>
       </c>
@@ -7464,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>44774</v>
       </c>
@@ -7514,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>44805</v>
       </c>
@@ -7564,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>44835</v>
       </c>
@@ -7614,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>44866</v>
       </c>
@@ -7664,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>44896</v>
       </c>
@@ -7714,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>44927</v>
       </c>
@@ -7764,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>44958</v>
       </c>
@@ -7814,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>44986</v>
       </c>
@@ -7864,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>45017</v>
       </c>
@@ -7914,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>45047</v>
       </c>
@@ -7964,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>45078</v>
       </c>
@@ -8014,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="33" t="s">
         <v>91</v>
       </c>
@@ -8032,7 +8052,7 @@
       <c r="N82" s="33"/>
       <c r="O82" s="33"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>41</v>
       </c>
@@ -8052,7 +8072,7 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
     </row>
-    <row r="84" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B84" s="31" t="s">
         <v>14</v>
       </c>
@@ -8098,7 +8118,7 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>44562</v>
       </c>
@@ -8144,7 +8164,7 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>44593</v>
       </c>
@@ -8190,7 +8210,7 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>44621</v>
       </c>
@@ -8236,7 +8256,7 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="7">
         <v>44652</v>
       </c>
@@ -8282,7 +8302,7 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="7">
         <v>44682</v>
       </c>
@@ -8328,7 +8348,7 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>44713</v>
       </c>
@@ -8374,7 +8394,7 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>44743</v>
       </c>
@@ -8420,7 +8440,7 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>44774</v>
       </c>
@@ -8466,7 +8486,7 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>44805</v>
       </c>
@@ -8512,7 +8532,7 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>44835</v>
       </c>
@@ -8558,7 +8578,7 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>44866</v>
       </c>
@@ -8604,7 +8624,7 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>44896</v>
       </c>
@@ -8650,7 +8670,7 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="7">
         <v>44927</v>
       </c>
@@ -8696,7 +8716,7 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -8714,7 +8734,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -8732,7 +8752,7 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>123</v>
       </c>
@@ -8752,7 +8772,7 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
     </row>
-    <row r="101" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>14</v>
       </c>
@@ -8802,7 +8822,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <v>44562</v>
       </c>
@@ -8852,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
         <v>44593</v>
       </c>
@@ -8902,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
         <v>44621</v>
       </c>
@@ -8952,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
         <v>44652</v>
       </c>
@@ -9002,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
         <v>44682</v>
       </c>
@@ -9052,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="7">
         <v>44713</v>
       </c>
@@ -9102,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="7">
         <v>44743</v>
       </c>
@@ -9152,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="7">
         <v>44805</v>
       </c>
@@ -9202,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="7">
         <v>44835</v>
       </c>
@@ -9252,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -9270,7 +9290,7 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -9288,7 +9308,7 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>44</v>
       </c>
@@ -9308,7 +9328,7 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B114" s="31" t="s">
         <v>14</v>
       </c>
@@ -9358,7 +9378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="7">
         <v>44562</v>
       </c>
@@ -9408,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="7">
         <v>44593</v>
       </c>
@@ -9458,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>44621</v>
       </c>
@@ -9508,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>44652</v>
       </c>
@@ -9558,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>44682</v>
       </c>
@@ -9608,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>44713</v>
       </c>
@@ -9658,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>44743</v>
       </c>
@@ -9708,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="7">
         <v>44774</v>
       </c>
@@ -9758,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="7">
         <v>44805</v>
       </c>
@@ -9808,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="7">
         <v>44835</v>
       </c>
@@ -9858,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="7">
         <v>44866</v>
       </c>
@@ -9908,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -9926,7 +9946,7 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -9944,7 +9964,7 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>46</v>
       </c>
@@ -9964,7 +9984,7 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
     </row>
-    <row r="129" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B129" s="31" t="s">
         <v>14</v>
       </c>
@@ -10014,7 +10034,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="7">
         <v>44562</v>
       </c>
@@ -10064,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="7">
         <v>44593</v>
       </c>
@@ -10114,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
         <v>44621</v>
       </c>
@@ -10164,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="7">
         <v>44652</v>
       </c>
@@ -10214,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="7">
         <v>44682</v>
       </c>
@@ -10264,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="7">
         <v>44713</v>
       </c>
@@ -10314,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="7">
         <v>44743</v>
       </c>
@@ -10364,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="7">
         <v>44774</v>
       </c>
@@ -10414,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="7">
         <v>44805</v>
       </c>
@@ -10464,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="7">
         <v>44835</v>
       </c>
@@ -10514,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="7">
         <v>44866</v>
       </c>
@@ -10564,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="7">
         <v>44896</v>
       </c>
@@ -10635,40 +10655,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7139AA-D54C-47AB-9409-AEDAD5A51AAF}">
   <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="80" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -10698,8 +10718,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
       <c r="B4" s="60">
         <v>44562</v>
       </c>
@@ -10728,8 +10748,8 @@
         <v>3.2356199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
       <c r="B5" s="52">
         <v>44593</v>
       </c>
@@ -10756,8 +10776,8 @@
         <v>3.8513160000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
       <c r="B6" s="52">
         <v>44621</v>
       </c>
@@ -10784,8 +10804,8 @@
         <v>3.4449420000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
       <c r="B7" s="52">
         <v>44652</v>
       </c>
@@ -10812,8 +10832,8 @@
         <v>2.3333650000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
       <c r="B8" s="52">
         <v>44682</v>
       </c>
@@ -10840,8 +10860,8 @@
         <v>2.785139</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
       <c r="B9" s="52">
         <v>44713</v>
       </c>
@@ -10868,8 +10888,8 @@
         <v>2.6258499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="80"/>
       <c r="B10" s="52">
         <v>44743</v>
       </c>
@@ -10896,8 +10916,8 @@
         <v>1.3263720000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
       <c r="B11" s="52">
         <v>44774</v>
       </c>
@@ -10924,8 +10944,8 @@
         <v>1.315869</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
       <c r="B12" s="52">
         <v>44805</v>
       </c>
@@ -10952,8 +10972,8 @@
         <v>1.2988839999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
       <c r="B13" s="52">
         <v>44835</v>
       </c>
@@ -10980,8 +11000,8 @@
         <v>2.0918610000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
       <c r="B14" s="52">
         <v>44866</v>
       </c>
@@ -11008,8 +11028,8 @@
         <v>1.7475560000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
       <c r="B15" s="55">
         <v>44896</v>
       </c>
@@ -11037,8 +11057,8 @@
         <v>1.256383</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
       <c r="B16" s="3"/>
       <c r="H16" s="52">
         <v>44927</v>
@@ -11053,8 +11073,8 @@
         <v>1.1954499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
       <c r="B17" s="3"/>
       <c r="H17" s="52">
         <v>44958</v>
@@ -11069,8 +11089,8 @@
         <v>1.142115</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="79"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="80"/>
       <c r="B18" s="3"/>
       <c r="H18" s="52">
         <v>44986</v>
@@ -11085,8 +11105,8 @@
         <v>1.0898330000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="79"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
       <c r="B19" s="3"/>
       <c r="H19" s="52">
         <v>45017</v>
@@ -11101,8 +11121,8 @@
         <v>1.0731139999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="79"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="3"/>
       <c r="H20" s="52">
         <v>45047</v>
@@ -11117,8 +11137,8 @@
         <v>1.0258160000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
       <c r="B21" s="3"/>
       <c r="H21" s="52">
         <v>45078</v>
@@ -11133,8 +11153,8 @@
         <v>0.93610099999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="79"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="3"/>
       <c r="H22" s="52">
         <v>45108</v>
@@ -11149,8 +11169,8 @@
         <v>0.883602</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="79"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="3"/>
       <c r="H23" s="52">
         <v>45139</v>
@@ -11165,8 +11185,8 @@
         <v>0.825515</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="3"/>
       <c r="H24" s="52">
         <v>45170</v>
@@ -11181,8 +11201,8 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
       <c r="B25" s="3"/>
       <c r="H25" s="52">
         <v>45200</v>
@@ -11197,8 +11217,8 @@
         <v>7.5351000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
       <c r="B26" s="3"/>
       <c r="H26" s="55">
         <v>45231</v>
@@ -11214,7 +11234,7 @@
         <v>7.5351000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -11222,7 +11242,7 @@
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
       <c r="I28" s="64"/>
@@ -11230,7 +11250,7 @@
       <c r="K28" s="64"/>
       <c r="L28" s="64"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
       <c r="I29" s="64"/>
@@ -11238,8 +11258,8 @@
       <c r="K29" s="64"/>
       <c r="L29" s="64"/>
     </row>
-    <row r="30" spans="1:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="79" t="s">
+    <row r="30" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -11270,8 +11290,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="79"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
       <c r="B31" s="52">
         <v>44562</v>
       </c>
@@ -11299,8 +11319,8 @@
         <v>0.90748099999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="79"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
       <c r="B32" s="52">
         <v>44593</v>
       </c>
@@ -11327,8 +11347,8 @@
         <v>0.90337299999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="79"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
       <c r="B33" s="52">
         <v>44621</v>
       </c>
@@ -11355,8 +11375,8 @@
         <v>0.90771900000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="79"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="80"/>
       <c r="B34" s="52">
         <v>44652</v>
       </c>
@@ -11383,8 +11403,8 @@
         <v>0.90473499999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="79"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
       <c r="B35" s="52">
         <v>44682</v>
       </c>
@@ -11411,8 +11431,8 @@
         <v>0.90032400000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="79"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="80"/>
       <c r="B36" s="52">
         <v>44713</v>
       </c>
@@ -11439,8 +11459,8 @@
         <v>0.89679900000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="79"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
       <c r="B37" s="52">
         <v>44743</v>
       </c>
@@ -11467,8 +11487,8 @@
         <v>0.89487000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="79"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="80"/>
       <c r="B38" s="52">
         <v>44774</v>
       </c>
@@ -11495,8 +11515,8 @@
         <v>0.89571599999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="79"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="80"/>
       <c r="B39" s="52">
         <v>44805</v>
       </c>
@@ -11523,8 +11543,8 @@
         <v>0.89974600000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="79"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
       <c r="B40" s="52">
         <v>44835</v>
       </c>
@@ -11551,8 +11571,8 @@
         <v>0.89549999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="79"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
       <c r="B41" s="52">
         <v>44866</v>
       </c>
@@ -11579,8 +11599,8 @@
         <v>0.890706</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="79"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="80"/>
       <c r="B42" s="52">
         <v>44896</v>
       </c>
@@ -11607,8 +11627,8 @@
         <v>0.88289700000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="79"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
       <c r="B43" s="52">
         <v>44927</v>
       </c>
@@ -11635,8 +11655,8 @@
         <v>0.878498</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="79"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="80"/>
       <c r="B44" s="52">
         <v>44958</v>
       </c>
@@ -11663,8 +11683,8 @@
         <v>0.88085199999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="79"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="80"/>
       <c r="B45" s="52">
         <v>44986</v>
       </c>
@@ -11691,8 +11711,8 @@
         <v>0.88755899999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="79"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="80"/>
       <c r="B46" s="52">
         <v>45017</v>
       </c>
@@ -11719,8 +11739,8 @@
         <v>0.89102700000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="80"/>
       <c r="B47" s="52">
         <v>45047</v>
       </c>
@@ -11747,8 +11767,8 @@
         <v>0.89168400000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="79"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="80"/>
       <c r="B48" s="52">
         <v>45078</v>
       </c>
@@ -11775,8 +11795,8 @@
         <v>0.84505799999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="80"/>
       <c r="B49" s="52">
         <v>45108</v>
       </c>
@@ -11803,8 +11823,8 @@
         <v>0.77387899999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="79"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="80"/>
       <c r="B50" s="52">
         <v>45139</v>
       </c>
@@ -11831,8 +11851,8 @@
         <v>0.76161999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="79"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="80"/>
       <c r="B51" s="55">
         <v>45170</v>
       </c>
@@ -11859,8 +11879,8 @@
         <v>0.16109999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="79"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="80"/>
       <c r="H52" s="52">
         <v>45200</v>
       </c>
@@ -11874,8 +11894,8 @@
         <v>7.5351000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="79"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="80"/>
       <c r="H53" s="55">
         <v>45231</v>
       </c>
@@ -11903,33 +11923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8732a610-f27b-4c60-9955-b89e92d13b6a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8d6326b0-eb6f-4d23-b858-e88618556f79" xsi:nil="true"/>
-    <SharedWithUsers xmlns="8d6326b0-eb6f-4d23-b858-e88618556f79">
-      <UserInfo>
-        <DisplayName>Quintal Pereira, Alan Diego (Bip Group)</DisplayName>
-        <AccountId>10</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008597EB9EEF970F40A21D558A8EC3B91E" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ed04273ede6dc710fa4a7293c462726f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8732a610-f27b-4c60-9955-b89e92d13b6a" xmlns:ns3="8d6326b0-eb6f-4d23-b858-e88618556f79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="acfcd8c396a7586259c058811114d4da" ns2:_="" ns3:_="">
     <xsd:import namespace="8732a610-f27b-4c60-9955-b89e92d13b6a"/>
@@ -12152,10 +12145,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8732a610-f27b-4c60-9955-b89e92d13b6a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8d6326b0-eb6f-4d23-b858-e88618556f79" xsi:nil="true"/>
+    <SharedWithUsers xmlns="8d6326b0-eb6f-4d23-b858-e88618556f79">
+      <UserInfo>
+        <DisplayName>Quintal Pereira, Alan Diego (Bip Group)</DisplayName>
+        <AccountId>10</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC3CB6D-4759-4EF9-B7DF-19DBB3B8B68C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41A6A9C-E6A8-4482-B634-1FB4B2548F9E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8732a610-f27b-4c60-9955-b89e92d13b6a"/>
+    <ds:schemaRef ds:uri="8d6326b0-eb6f-4d23-b858-e88618556f79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12172,20 +12203,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41A6A9C-E6A8-4482-B634-1FB4B2548F9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC3CB6D-4759-4EF9-B7DF-19DBB3B8B68C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8732a610-f27b-4c60-9955-b89e92d13b6a"/>
-    <ds:schemaRef ds:uri="8d6326b0-eb6f-4d23-b858-e88618556f79"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>